--- a/Week1/Day 2/Algos/W01D02_ALGO.xlsx
+++ b/Week1/Day 2/Algos/W01D02_ALGO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Predict the output</t>
   </si>
@@ -70,9 +70,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>0+3+1+3+1</t>
-  </si>
-  <si>
     <t>0,4,8</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>[3,4,-2,7,16,-8,0]</t>
+  </si>
+  <si>
+    <t>0,4,8,12</t>
+  </si>
+  <si>
+    <t>outside of the loop 8</t>
   </si>
 </sst>
 </file>
@@ -328,8 +331,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -339,6 +340,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -774,7 +777,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="2:4" ht="12.75">
-      <c r="B2" s="13"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,49 +786,49 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="12.75">
-      <c r="B3" s="14"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="12.75">
-      <c r="B4" s="14"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="12.75">
-      <c r="B5" s="14"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12.75">
-      <c r="B6" s="14"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="12.75">
-      <c r="B7" s="14"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:4" ht="12.75">
-      <c r="B8" s="14"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="12.75">
-      <c r="B9" s="14"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="12.75">
-      <c r="B12" s="13"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
@@ -844,45 +847,45 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="12.75">
-      <c r="B13" s="14"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="12.75">
+      <c r="B14" s="23"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="12.75">
-      <c r="B14" s="14"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="15" spans="2:4" ht="12.75">
-      <c r="B15" s="14"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7">
-        <v>8</v>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="12.75">
-      <c r="B16" s="14"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="12.75">
-      <c r="B17" s="14"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="2:4" ht="12.75">
-      <c r="B18" s="14"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" ht="12.75">
-      <c r="B19" s="14"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
     </row>
@@ -892,7 +895,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="12.75">
-      <c r="B22" s="13"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
@@ -901,91 +904,91 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="12.75">
-      <c r="B23" s="14"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="15" t="s">
+    </row>
+    <row r="24" spans="2:4" ht="12.75">
+      <c r="B24" s="23"/>
+      <c r="C24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="12.75">
+      <c r="B25" s="23"/>
+      <c r="C25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75">
-      <c r="B24" s="14"/>
-      <c r="C24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="17" t="s">
+    <row r="26" spans="2:4" ht="12.75">
+      <c r="B26" s="23"/>
+      <c r="C26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="12.75">
+      <c r="B27" s="23"/>
+      <c r="C27" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="12.75">
-      <c r="B25" s="14"/>
-      <c r="C25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="12.75">
-      <c r="B26" s="14"/>
-      <c r="C26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="12.75">
-      <c r="B27" s="14"/>
-      <c r="C27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="12.75">
-      <c r="B28" s="14"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:4" ht="12.75">
-      <c r="B29" s="14"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="2:4" ht="12.75">
-      <c r="B30" s="14"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="12.75">
-      <c r="B31" s="14"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="2:4" ht="12.75">
-      <c r="B32" s="14"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="12.75">
-      <c r="B33" s="14"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B34" s="14"/>
+      <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B35" s="14"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B36" s="14"/>
+      <c r="B36" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="20.25" customHeight="1">
-      <c r="B37" s="14"/>
+      <c r="B37" s="23"/>
     </row>
     <row r="39" spans="1:5" ht="30">
       <c r="B39" s="9" t="s">
@@ -1007,7 +1010,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75">
-      <c r="B44" s="13"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
@@ -1016,94 +1019,94 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75">
-      <c r="B45" s="14"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="20" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="12.75">
+      <c r="B46" s="23"/>
+      <c r="C46" s="20" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12.75">
-      <c r="B46" s="14"/>
-      <c r="C46" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.75">
-      <c r="B47" s="14"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="20" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="12.75">
+      <c r="B48" s="23"/>
+      <c r="C48" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75">
-      <c r="B48" s="14"/>
-      <c r="C48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="23" t="s">
+    </row>
+    <row r="49" spans="2:4" ht="12.75">
+      <c r="B49" s="23"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="12.75">
-      <c r="B49" s="14"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="50" spans="2:4" ht="12.75">
-      <c r="B50" s="14"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" spans="2:4" ht="12.75">
-      <c r="B51" s="14"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="12"/>
     </row>
     <row r="52" spans="2:4" ht="12.75">
-      <c r="B52" s="14"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" spans="2:4" ht="12.75">
-      <c r="B53" s="14"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="12"/>
     </row>
     <row r="54" spans="2:4" ht="12.75">
-      <c r="B54" s="14"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B55" s="14"/>
+      <c r="B55" s="23"/>
     </row>
     <row r="56" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B56" s="14"/>
+      <c r="B56" s="23"/>
     </row>
     <row r="57" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B57" s="14"/>
+      <c r="B57" s="23"/>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B58" s="14"/>
+      <c r="B58" s="23"/>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B59" s="14"/>
+      <c r="B59" s="23"/>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B60" s="14"/>
+      <c r="B60" s="23"/>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B61" s="14"/>
+      <c r="B61" s="23"/>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B62" s="14"/>
+      <c r="B62" s="23"/>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B63" s="14"/>
+      <c r="B63" s="23"/>
     </row>
     <row r="65" spans="2:4" ht="25.5">
       <c r="B65" s="1" t="s">
@@ -1111,7 +1114,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="12.75">
-      <c r="B66" s="13"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="3" t="s">
         <v>1</v>
       </c>
@@ -1120,8 +1123,8 @@
       </c>
     </row>
     <row r="67" spans="2:4" ht="12.75">
-      <c r="B67" s="14"/>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D67">
@@ -1129,42 +1132,42 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="12.75">
-      <c r="B68" s="14"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="20" t="s">
-        <v>36</v>
+      <c r="D68" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="12.75">
-      <c r="B69" s="14"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="12"/>
     </row>
     <row r="70" spans="2:4" ht="12.75">
-      <c r="B70" s="14"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" spans="2:4" ht="12.75">
-      <c r="B71" s="14"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="12"/>
     </row>
     <row r="72" spans="2:4" ht="12.75">
-      <c r="B72" s="14"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" spans="2:4" ht="12.75">
-      <c r="B73" s="14"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="12"/>
     </row>
     <row r="74" spans="2:4" ht="12.75">
-      <c r="B74" s="14"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" spans="2:4" ht="12.75">
-      <c r="B75" s="14"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="12"/>
     </row>
     <row r="76" spans="2:4" ht="12.75">
-      <c r="B76" s="14"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="12"/>
     </row>
     <row r="78" spans="2:4" ht="25.5">
@@ -1173,46 +1176,46 @@
       </c>
     </row>
     <row r="79" spans="2:4" ht="12.75">
-      <c r="B79" s="13"/>
-      <c r="C79" s="20" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B80" s="14"/>
-      <c r="C80" s="20" t="s">
-        <v>37</v>
+      <c r="B80" s="23"/>
+      <c r="C80" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B81" s="14"/>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="23"/>
+      <c r="C81" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="20" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B82" s="14"/>
+      <c r="B82" s="23"/>
     </row>
     <row r="83" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B83" s="14"/>
+      <c r="B83" s="23"/>
     </row>
     <row r="84" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B84" s="14"/>
+      <c r="B84" s="23"/>
     </row>
     <row r="85" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B85" s="14"/>
+      <c r="B85" s="23"/>
     </row>
     <row r="86" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B86" s="14"/>
+      <c r="B86" s="23"/>
     </row>
     <row r="87" spans="2:4" ht="25.5">
       <c r="B87" s="1" t="s">
